--- a/UIUX Project Tracker.xlsx
+++ b/UIUX Project Tracker.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A699C4C6-EF0F-4EEB-9FCA-905C1761470D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{C3E6E702-0EBF-441E-A060-FE0FBB737D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4150D5B5-B8F6-4323-BA35-7A21E7D7741B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -128,24 +128,12 @@
     <t>Create User Flow diagrams</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>SWOT Analysis</t>
-  </si>
-  <si>
     <t>Low-Fidelity</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Style Guide</t>
   </si>
   <si>
-    <t>Map User Journeys</t>
-  </si>
-  <si>
     <t>High-Fidelity</t>
   </si>
   <si>
@@ -155,15 +143,9 @@
     <t>Usability Testing</t>
   </si>
   <si>
-    <t>Final Report</t>
-  </si>
-  <si>
     <t>Presentation</t>
   </si>
   <si>
-    <t>Demo Video</t>
-  </si>
-  <si>
     <t>Competitor Analysis</t>
   </si>
   <si>
@@ -192,6 +174,24 @@
   </si>
   <si>
     <t>09/042025</t>
+  </si>
+  <si>
+    <t>SWOT Anlysis</t>
+  </si>
+  <si>
+    <t>youstina,omnia,habiba</t>
+  </si>
+  <si>
+    <t>Stakeholder Interview</t>
+  </si>
+  <si>
+    <t>youstina. omnia</t>
+  </si>
+  <si>
+    <t>Empathy Map</t>
+  </si>
+  <si>
+    <t>Research</t>
   </si>
 </sst>
 </file>
@@ -769,9 +769,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -786,6 +783,9 @@
     </xf>
     <xf numFmtId="168" fontId="20" fillId="4" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="28" fillId="4" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1146,9 +1146,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AC5ABD97-C879-4C0C-A613-C6E7C75B3B66}" name="Tasks" displayName="Tasks" ref="B13:I38" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="B13:I38" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AC5ABD97-C879-4C0C-A613-C6E7C75B3B66}" name="Tasks" displayName="Tasks" ref="B13:I39" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="B13:I39" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1388,10 +1392,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1488,15 +1492,15 @@
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="72">
+      <c r="C7" s="72"/>
+      <c r="D7" s="71">
         <f ca="1">TODAY()</f>
-        <v>45772</v>
-      </c>
-      <c r="E7" s="72"/>
+        <v>45788</v>
+      </c>
+      <c r="E7" s="71"/>
       <c r="F7" s="59"/>
       <c r="G7" s="30" t="s">
         <v>7</v>
@@ -1540,17 +1544,17 @@
     </row>
     <row r="11" spans="1:9" s="5" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
       <c r="F11" s="52"/>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="71"/>
+      <c r="H11" s="70"/>
     </row>
     <row r="12" spans="1:9" s="5" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
@@ -1611,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="28" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1646,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="64">
@@ -1663,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:9" s="28" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1719,53 +1723,51 @@
       </c>
     </row>
     <row r="19" spans="2:9" s="28" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="50">
+      <c r="B19" s="73">
         <f ca="1">Tasks[[#This Row],[STATUS]]</f>
         <v>1</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D19" s="42"/>
-      <c r="E19" s="64">
+      <c r="E19" s="75">
         <v>45736</v>
       </c>
-      <c r="F19" s="64">
-        <v>45737</v>
-      </c>
+      <c r="F19" s="75"/>
       <c r="G19" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="41">
+      <c r="H19" s="76">
         <f ca="1">IFERROR(IF(ISBLANK(Tasks[[#This Row],[START DATE]]),"",IF(Tasks[[#This Row],[DONE?]]="Yes",1,IF(OR(Tasks[[#This Row],[START DATE]]&gt;PlanDueDate,Tasks[[#This Row],[DONE?]]="No"),-1,IF(OR(OR(Tasks[[#This Row],[START DATE]]=TODAY(),Tasks[[#This Row],[START DATE]]=PlanDueDate),Tasks[[#This Row],[DONE?]]="Pending"),0,"")))),"")</f>
         <v>1</v>
       </c>
-      <c r="I19" s="39" t="s">
-        <v>28</v>
+      <c r="I19" s="77" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="28" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="50">
+      <c r="B20" s="73">
         <f ca="1">Tasks[[#This Row],[STATUS]]</f>
         <v>1</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D20" s="42"/>
-      <c r="E20" s="64">
-        <v>45738</v>
-      </c>
-      <c r="F20" s="64"/>
+      <c r="E20" s="75">
+        <v>45736</v>
+      </c>
+      <c r="F20" s="75"/>
       <c r="G20" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="76">
         <f ca="1">IFERROR(IF(ISBLANK(Tasks[[#This Row],[START DATE]]),"",IF(Tasks[[#This Row],[DONE?]]="Yes",1,IF(OR(Tasks[[#This Row],[START DATE]]&gt;PlanDueDate,Tasks[[#This Row],[DONE?]]="No"),-1,IF(OR(OR(Tasks[[#This Row],[START DATE]]=TODAY(),Tasks[[#This Row],[START DATE]]=PlanDueDate),Tasks[[#This Row],[DONE?]]="Pending"),0,"")))),"")</f>
         <v>1</v>
       </c>
-      <c r="I20" s="39" t="s">
-        <v>25</v>
+      <c r="I20" s="77" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="28" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1774,13 +1776,15 @@
         <v>1</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="64">
-        <v>45751</v>
-      </c>
-      <c r="F21" s="64"/>
+        <v>45736</v>
+      </c>
+      <c r="F21" s="64">
+        <v>45737</v>
+      </c>
       <c r="G21" s="40" t="s">
         <v>21</v>
       </c>
@@ -1789,40 +1793,40 @@
         <v>1</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:9" s="28" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="50">
+      <c r="B22" s="73">
         <f ca="1">Tasks[[#This Row],[STATUS]]</f>
         <v>1</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D22" s="42"/>
-      <c r="E22" s="64">
-        <v>45751</v>
-      </c>
-      <c r="F22" s="64"/>
+      <c r="E22" s="75">
+        <v>45736</v>
+      </c>
+      <c r="F22" s="75"/>
       <c r="G22" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="76">
         <f ca="1">IFERROR(IF(ISBLANK(Tasks[[#This Row],[START DATE]]),"",IF(Tasks[[#This Row],[DONE?]]="Yes",1,IF(OR(Tasks[[#This Row],[START DATE]]&gt;PlanDueDate,Tasks[[#This Row],[DONE?]]="No"),-1,IF(OR(OR(Tasks[[#This Row],[START DATE]]=TODAY(),Tasks[[#This Row],[START DATE]]=PlanDueDate),Tasks[[#This Row],[DONE?]]="Pending"),0,"")))),"")</f>
         <v>1</v>
       </c>
-      <c r="I22" s="39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" s="28" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="50">
         <f ca="1">Tasks[[#This Row],[STATUS]]</f>
         <v>1</v>
       </c>
-      <c r="C23" s="70" t="s">
-        <v>42</v>
+      <c r="C23" s="42" t="s">
+        <v>37</v>
       </c>
       <c r="D23" s="42"/>
       <c r="E23" s="64">
@@ -1846,11 +1850,11 @@
         <v>1</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D24" s="42"/>
       <c r="E24" s="64">
-        <v>45753</v>
+        <v>45751</v>
       </c>
       <c r="F24" s="64"/>
       <c r="G24" s="40" t="s">
@@ -1861,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:9" s="28" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1870,11 +1874,11 @@
         <v>1</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D25" s="42"/>
       <c r="E25" s="64">
-        <v>45758</v>
+        <v>45751</v>
       </c>
       <c r="F25" s="64"/>
       <c r="G25" s="40" t="s">
@@ -1885,215 +1889,237 @@
         <v>1</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" s="28" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="74">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="50">
         <f ca="1">Tasks[[#This Row],[STATUS]]</f>
         <v>1</v>
       </c>
-      <c r="C26" s="42" t="s">
-        <v>50</v>
+      <c r="C26" s="69" t="s">
+        <v>36</v>
       </c>
       <c r="D26" s="42"/>
-      <c r="E26" s="75">
-        <v>45755</v>
-      </c>
-      <c r="F26" s="75" t="s">
-        <v>51</v>
-      </c>
+      <c r="E26" s="64">
+        <v>45738</v>
+      </c>
+      <c r="F26" s="64"/>
       <c r="G26" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="76">
+      <c r="H26" s="41">
         <f ca="1">IFERROR(IF(ISBLANK(Tasks[[#This Row],[START DATE]]),"",IF(Tasks[[#This Row],[DONE?]]="Yes",1,IF(OR(Tasks[[#This Row],[START DATE]]&gt;PlanDueDate,Tasks[[#This Row],[DONE?]]="No"),-1,IF(OR(OR(Tasks[[#This Row],[START DATE]]=TODAY(),Tasks[[#This Row],[START DATE]]=PlanDueDate),Tasks[[#This Row],[DONE?]]="Pending"),0,"")))),"")</f>
         <v>1</v>
       </c>
-      <c r="I26" s="77" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" s="28" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="50">
+      <c r="I26" s="39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="73">
         <f ca="1">Tasks[[#This Row],[STATUS]]</f>
         <v>1</v>
       </c>
-      <c r="C27" s="42" t="s">
-        <v>36</v>
+      <c r="C27" s="74" t="s">
+        <v>46</v>
       </c>
       <c r="D27" s="42"/>
-      <c r="E27" s="64">
-        <v>45760</v>
-      </c>
-      <c r="F27" s="64">
-        <v>45772</v>
-      </c>
+      <c r="E27" s="75">
+        <v>45738</v>
+      </c>
+      <c r="F27" s="75"/>
       <c r="G27" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="41">
+      <c r="H27" s="76">
         <f ca="1">IFERROR(IF(ISBLANK(Tasks[[#This Row],[START DATE]]),"",IF(Tasks[[#This Row],[DONE?]]="Yes",1,IF(OR(Tasks[[#This Row],[START DATE]]&gt;PlanDueDate,Tasks[[#This Row],[DONE?]]="No"),-1,IF(OR(OR(Tasks[[#This Row],[START DATE]]=TODAY(),Tasks[[#This Row],[START DATE]]=PlanDueDate),Tasks[[#This Row],[DONE?]]="Pending"),0,"")))),"")</f>
         <v>1</v>
       </c>
-      <c r="I27" s="39" t="s">
-        <v>49</v>
+      <c r="I27" s="77" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:9" s="28" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="50" t="str">
+      <c r="B28" s="50">
         <f ca="1">Tasks[[#This Row],[STATUS]]</f>
-        <v/>
-      </c>
-      <c r="C28" s="69" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>30</v>
       </c>
       <c r="D28" s="42"/>
-      <c r="E28" s="64"/>
+      <c r="E28" s="64">
+        <v>45753</v>
+      </c>
       <c r="F28" s="64"/>
       <c r="G28" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="41" t="str">
+        <v>21</v>
+      </c>
+      <c r="H28" s="41">
         <f ca="1">IFERROR(IF(ISBLANK(Tasks[[#This Row],[START DATE]]),"",IF(Tasks[[#This Row],[DONE?]]="Yes",1,IF(OR(Tasks[[#This Row],[START DATE]]&gt;PlanDueDate,Tasks[[#This Row],[DONE?]]="No"),-1,IF(OR(OR(Tasks[[#This Row],[START DATE]]=TODAY(),Tasks[[#This Row],[START DATE]]=PlanDueDate),Tasks[[#This Row],[DONE?]]="Pending"),0,"")))),"")</f>
-        <v/>
-      </c>
-      <c r="I28" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" spans="2:9" s="28" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="50" t="str">
+      <c r="B29" s="50">
         <f ca="1">Tasks[[#This Row],[STATUS]]</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D29" s="42"/>
-      <c r="E29" s="64"/>
+      <c r="E29" s="64">
+        <v>45758</v>
+      </c>
       <c r="F29" s="64"/>
       <c r="G29" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="41">
+        <f ca="1">IFERROR(IF(ISBLANK(Tasks[[#This Row],[START DATE]]),"",IF(Tasks[[#This Row],[DONE?]]="Yes",1,IF(OR(Tasks[[#This Row],[START DATE]]&gt;PlanDueDate,Tasks[[#This Row],[DONE?]]="No"),-1,IF(OR(OR(Tasks[[#This Row],[START DATE]]=TODAY(),Tasks[[#This Row],[START DATE]]=PlanDueDate),Tasks[[#This Row],[DONE?]]="Pending"),0,"")))),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" s="28" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="50">
+        <f ca="1">Tasks[[#This Row],[STATUS]]</f>
+        <v>1</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="64">
+        <v>45755</v>
+      </c>
+      <c r="F30" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="41">
+        <f ca="1">IFERROR(IF(ISBLANK(Tasks[[#This Row],[START DATE]]),"",IF(Tasks[[#This Row],[DONE?]]="Yes",1,IF(OR(Tasks[[#This Row],[START DATE]]&gt;PlanDueDate,Tasks[[#This Row],[DONE?]]="No"),-1,IF(OR(OR(Tasks[[#This Row],[START DATE]]=TODAY(),Tasks[[#This Row],[START DATE]]=PlanDueDate),Tasks[[#This Row],[DONE?]]="Pending"),0,"")))),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" s="28" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="50">
+        <f ca="1">Tasks[[#This Row],[STATUS]]</f>
+        <v>1</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="42"/>
+      <c r="E31" s="64">
+        <v>45760</v>
+      </c>
+      <c r="F31" s="64">
+        <v>45772</v>
+      </c>
+      <c r="G31" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="41">
+        <f ca="1">IFERROR(IF(ISBLANK(Tasks[[#This Row],[START DATE]]),"",IF(Tasks[[#This Row],[DONE?]]="Yes",1,IF(OR(Tasks[[#This Row],[START DATE]]&gt;PlanDueDate,Tasks[[#This Row],[DONE?]]="No"),-1,IF(OR(OR(Tasks[[#This Row],[START DATE]]=TODAY(),Tasks[[#This Row],[START DATE]]=PlanDueDate),Tasks[[#This Row],[DONE?]]="Pending"),0,"")))),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" s="28" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="50">
+        <f ca="1">Tasks[[#This Row],[STATUS]]</f>
+        <v>1</v>
+      </c>
+      <c r="C32" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="41" t="str">
-        <f ca="1">IFERROR(IF(ISBLANK(Tasks[[#This Row],[START DATE]]),"",IF(Tasks[[#This Row],[DONE?]]="Yes",1,IF(OR(Tasks[[#This Row],[START DATE]]&gt;PlanDueDate,Tasks[[#This Row],[DONE?]]="No"),-1,IF(OR(OR(Tasks[[#This Row],[START DATE]]=TODAY(),Tasks[[#This Row],[START DATE]]=PlanDueDate),Tasks[[#This Row],[DONE?]]="Pending"),0,"")))),"")</f>
-        <v/>
-      </c>
-      <c r="I29" s="39"/>
-    </row>
-    <row r="30" spans="2:9" s="28" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="50" t="str">
-        <f ca="1">Tasks[[#This Row],[STATUS]]</f>
-        <v/>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="41" t="str">
-        <f ca="1">IFERROR(IF(ISBLANK(Tasks[[#This Row],[START DATE]]),"",IF(Tasks[[#This Row],[DONE?]]="Yes",1,IF(OR(Tasks[[#This Row],[START DATE]]&gt;PlanDueDate,Tasks[[#This Row],[DONE?]]="No"),-1,IF(OR(OR(Tasks[[#This Row],[START DATE]]=TODAY(),Tasks[[#This Row],[START DATE]]=PlanDueDate),Tasks[[#This Row],[DONE?]]="Pending"),0,"")))),"")</f>
-        <v/>
-      </c>
-      <c r="I30" s="39"/>
-    </row>
-    <row r="31" spans="2:9" s="28" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="50" t="str">
-        <f ca="1">Tasks[[#This Row],[STATUS]]</f>
-        <v/>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" s="41" t="str">
-        <f ca="1">IFERROR(IF(ISBLANK(Tasks[[#This Row],[START DATE]]),"",IF(Tasks[[#This Row],[DONE?]]="Yes",1,IF(OR(Tasks[[#This Row],[START DATE]]&gt;PlanDueDate,Tasks[[#This Row],[DONE?]]="No"),-1,IF(OR(OR(Tasks[[#This Row],[START DATE]]=TODAY(),Tasks[[#This Row],[START DATE]]=PlanDueDate),Tasks[[#This Row],[DONE?]]="Pending"),0,"")))),"")</f>
-        <v/>
-      </c>
-      <c r="I31" s="39"/>
-    </row>
-    <row r="32" spans="2:9" s="28" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="50" t="str">
-        <f ca="1">Tasks[[#This Row],[STATUS]]</f>
-        <v/>
-      </c>
-      <c r="C32" s="42" t="s">
-        <v>39</v>
-      </c>
       <c r="D32" s="42"/>
-      <c r="E32" s="64"/>
+      <c r="E32" s="64">
+        <v>45774</v>
+      </c>
       <c r="F32" s="64"/>
       <c r="G32" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32" s="41" t="str">
+        <v>21</v>
+      </c>
+      <c r="H32" s="41">
         <f ca="1">IFERROR(IF(ISBLANK(Tasks[[#This Row],[START DATE]]),"",IF(Tasks[[#This Row],[DONE?]]="Yes",1,IF(OR(Tasks[[#This Row],[START DATE]]&gt;PlanDueDate,Tasks[[#This Row],[DONE?]]="No"),-1,IF(OR(OR(Tasks[[#This Row],[START DATE]]=TODAY(),Tasks[[#This Row],[START DATE]]=PlanDueDate),Tasks[[#This Row],[DONE?]]="Pending"),0,"")))),"")</f>
-        <v/>
-      </c>
-      <c r="I32" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="33" spans="2:9" s="28" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="50" t="str">
+      <c r="B33" s="50">
         <f ca="1">Tasks[[#This Row],[STATUS]]</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D33" s="42"/>
-      <c r="E33" s="64"/>
+      <c r="E33" s="64">
+        <v>45779</v>
+      </c>
       <c r="F33" s="64"/>
       <c r="G33" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="41" t="str">
+        <v>21</v>
+      </c>
+      <c r="H33" s="41">
         <f ca="1">IFERROR(IF(ISBLANK(Tasks[[#This Row],[START DATE]]),"",IF(Tasks[[#This Row],[DONE?]]="Yes",1,IF(OR(Tasks[[#This Row],[START DATE]]&gt;PlanDueDate,Tasks[[#This Row],[DONE?]]="No"),-1,IF(OR(OR(Tasks[[#This Row],[START DATE]]=TODAY(),Tasks[[#This Row],[START DATE]]=PlanDueDate),Tasks[[#This Row],[DONE?]]="Pending"),0,"")))),"")</f>
-        <v/>
-      </c>
-      <c r="I33" s="39"/>
-    </row>
-    <row r="34" spans="2:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="50" t="str">
+        <v>1</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" s="28" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="50">
         <f ca="1">Tasks[[#This Row],[STATUS]]</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D34" s="42"/>
-      <c r="E34" s="64"/>
+      <c r="E34" s="64">
+        <v>45781</v>
+      </c>
       <c r="F34" s="64"/>
       <c r="G34" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" s="41" t="str">
+        <v>21</v>
+      </c>
+      <c r="H34" s="41">
         <f ca="1">IFERROR(IF(ISBLANK(Tasks[[#This Row],[START DATE]]),"",IF(Tasks[[#This Row],[DONE?]]="Yes",1,IF(OR(Tasks[[#This Row],[START DATE]]&gt;PlanDueDate,Tasks[[#This Row],[DONE?]]="No"),-1,IF(OR(OR(Tasks[[#This Row],[START DATE]]=TODAY(),Tasks[[#This Row],[START DATE]]=PlanDueDate),Tasks[[#This Row],[DONE?]]="Pending"),0,"")))),"")</f>
-        <v/>
-      </c>
-      <c r="I34" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="35" spans="2:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="50" t="str">
-        <f ca="1">Tasks[[#This Row],[STATUS]]</f>
-        <v/>
-      </c>
+      <c r="B35" s="50"/>
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
       <c r="E35" s="64"/>
       <c r="F35" s="64"/>
       <c r="G35" s="40"/>
-      <c r="H35" s="41" t="str">
-        <f ca="1">IFERROR(IF(ISBLANK(Tasks[[#This Row],[START DATE]]),"",IF(Tasks[[#This Row],[DONE?]]="Yes",1,IF(OR(Tasks[[#This Row],[START DATE]]&gt;PlanDueDate,Tasks[[#This Row],[DONE?]]="No"),-1,IF(OR(OR(Tasks[[#This Row],[START DATE]]=TODAY(),Tasks[[#This Row],[START DATE]]=PlanDueDate),Tasks[[#This Row],[DONE?]]="Pending"),0,"")))),"")</f>
-        <v/>
-      </c>
+      <c r="H35" s="41"/>
       <c r="I35" s="39"/>
     </row>
     <row r="36" spans="2:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2129,16 +2155,31 @@
       <c r="I37" s="39"/>
     </row>
     <row r="38" spans="2:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
+      <c r="B38" s="50" t="str">
+        <f ca="1">Tasks[[#This Row],[STATUS]]</f>
+        <v/>
+      </c>
+      <c r="C38" s="42"/>
       <c r="D38" s="42"/>
       <c r="E38" s="64"/>
       <c r="F38" s="64"/>
       <c r="G38" s="40"/>
-      <c r="H38" s="41"/>
+      <c r="H38" s="41" t="str">
+        <f ca="1">IFERROR(IF(ISBLANK(Tasks[[#This Row],[START DATE]]),"",IF(Tasks[[#This Row],[DONE?]]="Yes",1,IF(OR(Tasks[[#This Row],[START DATE]]&gt;PlanDueDate,Tasks[[#This Row],[DONE?]]="No"),-1,IF(OR(OR(Tasks[[#This Row],[START DATE]]=TODAY(),Tasks[[#This Row],[START DATE]]=PlanDueDate),Tasks[[#This Row],[DONE?]]="Pending"),0,"")))),"")</f>
+        <v/>
+      </c>
       <c r="I38" s="39"/>
     </row>
-    <row r="39" spans="2:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="39"/>
+    </row>
     <row r="40" spans="2:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="2:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2147,6 +2188,7 @@
     <row r="45" spans="2:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="2:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="2:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G11:H11"/>
@@ -2154,7 +2196,7 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B7:C7"/>
   </mergeCells>
-  <conditionalFormatting sqref="C14:I22 D38:I38 D23:I23 D28:I28 C24:I27 C29:I37">
+  <conditionalFormatting sqref="C14:I25 D26:I27 C28:I38 D39:I39">
     <cfRule type="expression" dxfId="2" priority="24">
       <formula>$B14=1</formula>
     </cfRule>
@@ -2183,7 +2225,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Name in cell below" sqref="H5" xr:uid="{A5B8E087-6ECD-470B-A8AC-E739B2B1F378}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Objective in this cell" sqref="G11:H11" xr:uid="{AF0E8FC1-0CC1-49E0-A430-AFB960FF60B7}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Topic in cell below" sqref="B5" xr:uid="{EC49B5C6-AF62-48FC-8078-7838DD6BA33F}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select an option from the list. Press Cancel then ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G14:G26 G27:G38" xr:uid="{451CDBCE-CEAA-4882-B4A4-E1C32A64F044}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select an option from the list. Press Cancel then ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G14:G39" xr:uid="{451CDBCE-CEAA-4882-B4A4-E1C32A64F044}">
       <formula1>"Yes, No, Pending"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2198,7 +2240,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="67" id="{1F69EF75-97DB-4939-A243-E6D7067F3316}">
+          <x14:cfRule type="iconSet" priority="75" id="{1F69EF75-97DB-4939-A243-E6D7067F3316}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2214,7 +2256,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B14:B38</xm:sqref>
+          <xm:sqref>B14:B39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2595,18 +2637,18 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE9EB428-F396-45E7-8DCC-1E01D64AF885}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
